--- a/data/trans_dic/P54_A_6_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_6_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,32 +633,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>62,4%</t>
+          <t>62,07%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>71,68%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>85,3%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +668,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72,08%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>78,93%</t>
+          <t>78,36%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,29; 36,64</t>
+          <t>21,86; 35,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>54,12; 70,64</t>
+          <t>53,37; 69,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>63,06; 78,66</t>
+          <t>63,44; 79,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,54; 42,04</t>
+          <t>27,96; 42,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>75,4; 87,99</t>
+          <t>74,37; 87,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,58; 91,05</t>
+          <t>78,58; 90,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,41; 37,46</t>
+          <t>27,09; 37,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>66,61; 77,44</t>
+          <t>65,92; 76,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>73,92; 83,52</t>
+          <t>73,19; 83,11</t>
         </is>
       </c>
     </row>
@@ -742,17 +743,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>72,79%</t>
+          <t>73,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>75,02%</t>
+          <t>74,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -762,17 +763,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,5%</t>
+          <t>77,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>85,39%</t>
+          <t>85,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -782,7 +783,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,96%</t>
+          <t>79,59%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,34; 48,74</t>
+          <t>29,75; 50,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,6; 80,4</t>
+          <t>65,01; 81,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,65; 81,41</t>
+          <t>67,77; 81,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,56; 54,3</t>
+          <t>39,96; 53,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,03; 83,39</t>
+          <t>70,1; 83,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>79,92; 89,63</t>
+          <t>80,15; 89,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,09; 49,37</t>
+          <t>37,05; 48,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,5; 79,85</t>
+          <t>69,04; 79,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>75,63; 83,47</t>
+          <t>75,34; 83,64</t>
         </is>
       </c>
     </row>
@@ -852,17 +853,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70,82%</t>
+          <t>74,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>76,62%</t>
+          <t>76,2%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,12 +873,12 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,56%</t>
+          <t>82,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>84,6%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -887,12 +888,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>76,66%</t>
+          <t>78,24%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>80,55%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>34,99; 48,56</t>
+          <t>35,0; 48,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>58,44; 79,64</t>
+          <t>63,93; 80,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,16; 81,61</t>
+          <t>70,34; 81,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,54; 51,82</t>
+          <t>41,01; 51,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,53; 86,92</t>
+          <t>76,57; 86,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>80,57; 88,41</t>
+          <t>80,43; 88,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,8; 48,98</t>
+          <t>39,3; 48,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>69,53; 81,33</t>
+          <t>72,19; 82,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>77,01; 83,77</t>
+          <t>77,4; 83,63</t>
         </is>
       </c>
     </row>
@@ -967,12 +968,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>76,57%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>78,94%</t>
+          <t>79,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,12 +983,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>84,41%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,59%</t>
+          <t>88,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -997,12 +998,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>80,62%</t>
+          <t>79,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>84,19%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,35; 38,38</t>
+          <t>27,02; 37,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>70,86; 81,63</t>
+          <t>70,5; 81,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,01; 83,13</t>
+          <t>74,77; 84,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>39,25; 49,56</t>
+          <t>38,85; 49,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,89; 88,47</t>
+          <t>78,76; 87,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>84,81; 91,84</t>
+          <t>84,9; 91,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,52; 42,71</t>
+          <t>34,71; 42,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>77,12; 83,83</t>
+          <t>76,5; 83,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>80,77; 86,67</t>
+          <t>81,0; 86,66</t>
         </is>
       </c>
     </row>
@@ -1077,27 +1078,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>76,25%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>73,95%</t>
+          <t>74,05%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>40,21%</t>
+          <t>40,22%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1107,7 +1108,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>84,69%</t>
+          <t>84,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,25; 39,08</t>
+          <t>27,54; 39,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>68,94; 82,8</t>
+          <t>68,28; 82,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,08; 79,3</t>
+          <t>67,71; 79,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32,79; 46,71</t>
+          <t>34,03; 47,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,09; 95,18</t>
+          <t>87,77; 95,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,95; 95,16</t>
+          <t>86,34; 94,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>31,6; 41,04</t>
+          <t>31,67; 40,83</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,47; 88,1</t>
+          <t>79,37; 87,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>78,4; 86,16</t>
+          <t>79,11; 86,37</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1183,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>42,82%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>75,9%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>86,65%</t>
+          <t>85,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1202,12 +1203,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>86,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1217,12 +1218,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>82,48%</t>
+          <t>82,82%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>88,73%</t>
+          <t>88,21%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,43; 51,46</t>
+          <t>34,78; 50,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>65,25; 82,99</t>
+          <t>69,48; 84,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,3; 90,99</t>
+          <t>80,02; 89,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38,0; 51,94</t>
+          <t>38,49; 53,56</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>81,82; 91,5</t>
+          <t>80,57; 90,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>86,19; 93,54</t>
+          <t>85,73; 93,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>39,18; 49,58</t>
+          <t>38,6; 49,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>76,81; 86,69</t>
+          <t>78,69; 86,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>85,51; 91,46</t>
+          <t>84,85; 91,02</t>
         </is>
       </c>
     </row>
@@ -1297,12 +1298,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>72,67%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>77,11%</t>
+          <t>76,95%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1312,12 +1313,12 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>83,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,77%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1327,12 +1328,12 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>78,75%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>82,55%</t>
+          <t>82,36%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,35; 39,92</t>
+          <t>33,36; 39,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,13; 75,86</t>
+          <t>70,45; 76,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>74,57; 79,42</t>
+          <t>74,35; 79,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40,86; 46,2</t>
+          <t>40,83; 46,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>82,4; 86,4</t>
+          <t>81,61; 85,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,89; 89,37</t>
+          <t>85,65; 89,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,86; 41,97</t>
+          <t>38,01; 42,04</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>76,54; 80,61</t>
+          <t>76,9; 80,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>81,07; 84,04</t>
+          <t>80,84; 83,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1405,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir revueltas, inseguridad o ya le ha ocurrido (tasa de respuesta: 97,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>143692</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>306908</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>373133</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>157017</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>374393</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>432013</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>300710</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>681301</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>805146</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>108048; 177656</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>263887; 345993</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>330538; 413794</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>125141; 191780</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>341327; 399570</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>397961; 456593</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>255116; 350789</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>628548; 731689</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>752007; 853980</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>216815</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>412620</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>412546</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>240889</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>387791</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>425691</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>457704</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>800411</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>838237</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>166737; 283361</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>367059; 457528</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>374686; 449642</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>203567; 273195</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>352150; 417698</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>400992; 447077</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>396303; 519698</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>736711; 852476</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>793453; 880935</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>246.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>400.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>269206</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>502596</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>297883</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>570306</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>597026</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>567089</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1072902</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1112557</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>226477; 316583</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>433543; 548378</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>475878; 548706</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>263091; 333514</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>530756; 601273</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>566727; 620499</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>506421; 621321</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>989871; 1132829</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1069098; 1155144</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>247.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>314.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>201516</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>482344</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>492801</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>287934</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>553595</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>587679</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>489449</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1035939</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1080479</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>166852; 233992</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>445383; 512656</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>464117; 522420</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>251525; 322367</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>523035; 579564</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>562524; 608640</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>439105; 539680</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>991333; 1077279</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1039466; 1112133</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>427.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>154745</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>374561</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>363507</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>174732</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>448966</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>453762</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>329477</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>823526</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>817270</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>129629; 185579</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>335410; 403824</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>332392; 391885</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>147839; 204772</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>429027; 464494</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>427600; 470092</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>286655; 369595</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>777855; 855233</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>780085; 851684</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>371.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>188709</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>401990</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>428614</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>245243</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>600273</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>576208</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>433952</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1002263</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>1004823</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>153268; 222583</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>357190; 433387</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>398964; 448569</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>209443; 291465</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>560807; 630919</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>549095; 597572</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>380084; 484111</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>952300; 1049886</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>966479; 1036747</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>851.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1009.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>628.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1102.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1414.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1083.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1953.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2423.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1174681</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2481018</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2586132</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1403698</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2935325</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>3072379</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2578380</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>5416344</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>5658511</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1077791; 1290481</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2377322; 2583365</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2498706; 2666110</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1316540; 1494020</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2859116; 3006886</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3006159; 3125669</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2453318; 2713793</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>5288859; 5545144</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5554009; 5745101</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>